--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1393101.084915031</v>
+        <v>1468630.754579836</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -659,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>331.0434395478385</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>58.58442069852281</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.393161831056851</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>53.80100608808107</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>172.2648209834057</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>76.80462337977889</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.7498680634317</v>
+        <v>47.14167849255895</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>93.48805915162994</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>70.04425893523262</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>68.4314178382491</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>168.7154878330667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>46.2530778377178</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1581,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>174.3062600431768</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>25.5892344692266</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>112.7789654907349</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2053,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2065,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>102.0005969012859</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>33.6679187544093</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2491,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.0106596486948</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>152.6276470398218</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>67.90088782653663</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>81.25284691325774</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2764,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>45.7277591235086</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>140.5678108961689</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>173.3390996464381</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,13 +3195,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3238,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>161.1706059301398</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,22 +3474,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>64.34190763938432</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>33.35146980185854</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3661,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>47.69985694152459</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3895,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>155.8385935972313</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3949,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>174.3062600431768</v>
+        <v>212.0917728165956</v>
       </c>
     </row>
   </sheetData>
@@ -4304,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1739.708500331692</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C2" t="n">
-        <v>1370.74598339128</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D2" t="n">
-        <v>1370.74598339128</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2637.972908494462</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2637.972908494462</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2637.972908494462</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>2306.910021150891</v>
       </c>
       <c r="W2" t="n">
-        <v>2113.174258592771</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="X2" t="n">
-        <v>1739.708500331692</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="Y2" t="n">
-        <v>1739.708500331692</v>
+        <v>1954.141365880777</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249.9299350185089</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>249.9299350185089</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>249.9299350185089</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>102.0168414361158</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>102.0168414361158</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>102.0168414361158</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>102.0168414361158</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4512,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>470.722514162039</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>249.9299350185089</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1763.586886263858</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1346.261374966372</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>960.4731223681274</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>549.4872175785199</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>131.5234094767068</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>131.5234094767068</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
@@ -4598,19 +4600,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205145</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>2311.057514205145</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1937.591755944065</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y5" t="n">
-        <v>1937.591755944065</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4650,37 +4652,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.9958041606071</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>554.6442689908469</v>
+        <v>680.5111271432434</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2035.589960916693</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="C8" t="n">
-        <v>1666.627443976282</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="D8" t="n">
-        <v>1666.627443976282</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="E8" t="n">
-        <v>1280.839191378037</v>
+        <v>886.5559895554136</v>
       </c>
       <c r="F8" t="n">
-        <v>869.8532865884299</v>
+        <v>475.570084765806</v>
       </c>
       <c r="G8" t="n">
-        <v>451.8894784866168</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>124.6947585226196</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2035.589960916693</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>2035.589960916693</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y8" t="n">
-        <v>2035.589960916693</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5356891811371</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>659.0063399253745</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610024</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610024</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610024</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y10" t="n">
-        <v>268.5356891811371</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="11">
@@ -5018,22 +5020,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5042,13 +5044,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5066,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5121,19 +5123,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>901.6749225845919</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5202,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5227,22 +5229,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954965</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>1187.92115703528</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324571</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954965</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5540,25 +5542,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766199</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.683698656581</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1433.546326320614</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1141.200876391121</v>
+        <v>936.0662010112162</v>
       </c>
       <c r="C19" t="n">
-        <v>972.2646934632137</v>
+        <v>936.0662010112162</v>
       </c>
       <c r="D19" t="n">
         <v>822.1480540508779</v>
@@ -5674,19 +5676,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5701,22 +5703,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V19" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W19" t="n">
-        <v>1387.841167119728</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X19" t="n">
-        <v>1387.841167119728</v>
+        <v>936.0662010112162</v>
       </c>
       <c r="Y19" t="n">
-        <v>1167.048587976198</v>
+        <v>936.0662010112162</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5731,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,31 +5770,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5829,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1141.200876391121</v>
+        <v>4368.210994661431</v>
       </c>
       <c r="C22" t="n">
-        <v>972.2646934632137</v>
+        <v>4334.202995919603</v>
       </c>
       <c r="D22" t="n">
-        <v>822.1480540508779</v>
+        <v>4184.086356507268</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="W22" t="n">
-        <v>1244.231782352015</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="X22" t="n">
-        <v>1244.231782352015</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="Y22" t="n">
-        <v>1244.231782352015</v>
+        <v>4549.85945949167</v>
       </c>
     </row>
     <row r="23">
@@ -5984,19 +5986,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6005,31 +6007,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250802</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095315</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.474758001779</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945773</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.19758416447</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698577</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3628.091576844582</v>
+        <v>527.1935825831087</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916675</v>
+        <v>358.2573996552018</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>358.2573996552018</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>358.2573996552018</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>358.2573996552018</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>358.2573996552018</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4549.859459491669</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4326.074044281175</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>4036.945405494733</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>3782.260917288846</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W25" t="n">
-        <v>3628.091576844582</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X25" t="n">
-        <v>3628.091576844582</v>
+        <v>527.1935825831087</v>
       </c>
       <c r="Y25" t="n">
-        <v>3628.091576844582</v>
+        <v>527.1935825831087</v>
       </c>
     </row>
     <row r="26">
@@ -6218,37 +6220,37 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>2500.819361250802</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>2911.709630095315</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>3158.474758001779</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>3795.657518945773</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>4075.19758416447</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>4565.745155698577</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1141.200876391121</v>
+        <v>1054.338276203878</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632137</v>
+        <v>972.2646934632138</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>822.148054050878</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G28" t="n">
         <v>359.1696912903951</v>
@@ -6379,7 +6381,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6412,22 +6414,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.787631771461</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="Y28" t="n">
-        <v>1209.787631771461</v>
+        <v>1054.338276203878</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,25 +6454,25 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
         <v>3183.709822619127</v>
@@ -6482,10 +6484,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636248</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1663.687808515591</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4184.086356507267</v>
+        <v>573.5346686508863</v>
       </c>
       <c r="C31" t="n">
-        <v>4184.086356507267</v>
+        <v>573.5346686508863</v>
       </c>
       <c r="D31" t="n">
-        <v>4184.086356507267</v>
+        <v>573.5346686508863</v>
       </c>
       <c r="E31" t="n">
-        <v>4036.173262924874</v>
+        <v>573.5346686508863</v>
       </c>
       <c r="F31" t="n">
-        <v>3889.283315426963</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746784</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4549.859459491669</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4326.074044281175</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>4184.086356507267</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>4184.086356507267</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W31" t="n">
-        <v>4184.086356507267</v>
+        <v>755.183133481126</v>
       </c>
       <c r="X31" t="n">
-        <v>4184.086356507267</v>
+        <v>755.183133481126</v>
       </c>
       <c r="Y31" t="n">
-        <v>4184.086356507267</v>
+        <v>755.183133481126</v>
       </c>
     </row>
     <row r="32">
@@ -6689,34 +6691,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6777,22 +6779,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>416.2699138005285</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6886,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V34" t="n">
-        <v>1336.117678709276</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W34" t="n">
-        <v>1046.700508672316</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X34" t="n">
-        <v>818.7109577742983</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="Y34" t="n">
-        <v>597.9183786307682</v>
+        <v>1054.338276203878</v>
       </c>
     </row>
     <row r="35">
@@ -6914,31 +6916,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6956,28 +6958,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250802</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095315</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.474758001779</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945773</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.19758416447</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698577</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3459.155393916675</v>
+        <v>4503.13917884751</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.155393916675</v>
+        <v>4334.202995919603</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916675</v>
+        <v>4184.086356507268</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916675</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916675</v>
+        <v>3889.283315426964</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431055</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436452</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042135</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576117</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S37" t="n">
-        <v>4549.859459491669</v>
+        <v>4684.78764367775</v>
       </c>
       <c r="T37" t="n">
-        <v>4326.074044281175</v>
+        <v>4684.78764367775</v>
       </c>
       <c r="U37" t="n">
-        <v>4036.945405494733</v>
+        <v>4684.78764367775</v>
       </c>
       <c r="V37" t="n">
-        <v>3782.260917288846</v>
+        <v>4684.78764367775</v>
       </c>
       <c r="W37" t="n">
-        <v>3492.843747251885</v>
+        <v>4684.78764367775</v>
       </c>
       <c r="X37" t="n">
-        <v>3459.155393916675</v>
+        <v>4684.78764367775</v>
       </c>
       <c r="Y37" t="n">
-        <v>3459.155393916675</v>
+        <v>4684.78764367775</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7172,16 +7174,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7190,7 +7192,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7360,22 +7362,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>1020.446367141521</v>
       </c>
     </row>
     <row r="41">
@@ -7391,25 +7393,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
@@ -7491,22 +7493,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3459.155393916676</v>
+        <v>4230.423978142506</v>
       </c>
       <c r="C43" t="n">
-        <v>3459.155393916676</v>
+        <v>4061.487795214599</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916676</v>
+        <v>3911.371155802263</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916676</v>
+        <v>3763.45806221987</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916676</v>
+        <v>3616.56811472196</v>
       </c>
       <c r="G43" t="n">
         <v>3459.155393916676</v>
@@ -7597,22 +7599,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="T43" t="n">
-        <v>4741.167820987513</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U43" t="n">
-        <v>4452.039182201071</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V43" t="n">
-        <v>4197.354693995184</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W43" t="n">
-        <v>3907.937523958223</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="X43" t="n">
-        <v>3679.947973060206</v>
+        <v>4632.865022116275</v>
       </c>
       <c r="Y43" t="n">
-        <v>3459.155393916676</v>
+        <v>4412.072442972745</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,28 +7633,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1141.200876391121</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C46" t="n">
-        <v>972.2646934632137</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D46" t="n">
-        <v>822.1480540508779</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7834,22 +7836,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X46" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="Y46" t="n">
-        <v>1322.84934122136</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,16 +8774,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>52.49733361305351</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,28 +9245,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>96.03744927814773</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298298</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9483,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>180.0237016735874</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10130,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10191,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>392.1113620226438</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10680,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10899,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10917,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11139,25 +11141,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>96.03744927814699</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445218</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>133.5789023442195</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23469,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>44.278393308918</v>
       </c>
     </row>
     <row r="17">
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23887,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>154.2427457127107</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>35.83650752747747</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -23953,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23984,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>77.83138328065138</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>133.5789023442185</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24184,7 +24186,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24379,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0.9031687188413571</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.8953512967692</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.9310923554007</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>85.99397418537009</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24652,10 +24654,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>99.69328889942264</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>145.6695415024085</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>6.492880535499154</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,13 +25083,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25126,19 +25128,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>90.9670373936882</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,22 +25362,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>133.5789023442189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25549,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>119.5469641571032</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,22 +25602,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>10.65497486614629</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25837,16 +25839,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26074,7 +26076,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>44.278393308918</v>
+        <v>6.492880535499154</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>940305.104279911</v>
+        <v>940305.1042799111</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.1042799108</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.104279911</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.104279911</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.104279911</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.104279911</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.017671963</v>
       </c>
-      <c r="C2" t="n">
-        <v>472099.0176719629</v>
-      </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.4186983651</v>
+        <v>449683.418698365</v>
       </c>
       <c r="F2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="G2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="H2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="I2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="J2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="K2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="L2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="M2" t="n">
         <v>449683.4186983652</v>
-      </c>
-      <c r="M2" t="n">
-        <v>449683.4186983651</v>
       </c>
       <c r="N2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="O2" t="n">
+        <v>449683.4186983654</v>
+      </c>
+      <c r="P2" t="n">
         <v>449683.4186983652</v>
-      </c>
-      <c r="P2" t="n">
-        <v>449683.4186983651</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,7 +26426,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
@@ -26433,16 +26435,16 @@
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
@@ -26470,37 +26472,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26509,7 +26511,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-366360.8073925154</v>
+        <v>-366360.8073925155</v>
       </c>
       <c r="C6" t="n">
-        <v>223607.071822029</v>
+        <v>223607.0718220291</v>
       </c>
       <c r="D6" t="n">
-        <v>223607.0718220291</v>
+        <v>223607.0718220292</v>
       </c>
       <c r="E6" t="n">
         <v>-189638.5513141183</v>
       </c>
       <c r="F6" t="n">
+        <v>335521.4851627777</v>
+      </c>
+      <c r="G6" t="n">
+        <v>335521.485162778</v>
+      </c>
+      <c r="H6" t="n">
         <v>335521.4851627778</v>
-      </c>
-      <c r="G6" t="n">
-        <v>335521.4851627777</v>
-      </c>
-      <c r="H6" t="n">
-        <v>335521.4851627779</v>
       </c>
       <c r="I6" t="n">
         <v>335521.4851627779</v>
       </c>
       <c r="J6" t="n">
-        <v>159098.265970185</v>
+        <v>159098.2659701849</v>
       </c>
       <c r="K6" t="n">
-        <v>335521.485162778</v>
+        <v>335521.4851627779</v>
       </c>
       <c r="L6" t="n">
         <v>335521.4851627779</v>
@@ -26558,7 +26560,7 @@
         <v>335521.4851627779</v>
       </c>
       <c r="O6" t="n">
-        <v>335521.4851627778</v>
+        <v>335521.4851627781</v>
       </c>
       <c r="P6" t="n">
         <v>335521.4851627778</v>
@@ -26738,22 +26740,22 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26777,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26966,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>50.88693052442329</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>115.8312921104487</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27436,13 +27438,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27543,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>132.5724599612814</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>171.2340993700032</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>210.4690206800749</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>75.12669286508236</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,16 +27672,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>46.83478528866308</v>
+        <v>171.4429748595358</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>320.296110869165</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>81.88705730962863</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,10 +28022,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>156.6036876198352</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>49.86916551902812</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31759,40 +31761,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31834,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215733</v>
@@ -31844,7 +31846,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724845</v>
@@ -31853,10 +31855,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31870,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31934,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31946,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32403,10 +32405,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32470,40 +32472,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,10 +32545,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32555,7 +32557,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32564,10 +32566,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32579,7 +32581,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32643,7 +32645,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,10 +32657,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541616</v>
       </c>
       <c r="P12" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35576,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>378.4011515192558</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36205,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>429.2814066296117</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36452,7 +36454,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K26" t="n">
         <v>528.689756130333</v>
@@ -36689,7 +36691,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36850,7 +36852,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R29" t="n">
         <v>59.82538970349808</v>
@@ -36911,10 +36913,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36923,13 +36925,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>674.475064263752</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37163,7 +37165,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37400,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37637,7 +37639,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37859,25 +37861,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,16 +38016,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1468630.754579836</v>
+        <v>1461613.739688125</v>
       </c>
     </row>
     <row r="7">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>274.452171367011</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>58.58442069852281</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>30.54110646053108</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>53.80100608808107</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>182.6503934283587</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>76.80462337977889</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.14167849255895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>93.48805915162994</v>
+        <v>165.3077787948334</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>68.4314178382491</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>155.2114886365811</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.2530778377178</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>9.139693961356361</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.3062600431768</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505273959</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,13 +2007,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>112.7789654907349</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>167.5476332178971</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.7791350527408</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>33.6679187544093</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>203.8435192151915</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.0106596486948</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>81.25284691325774</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>80.83119524460984</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>45.7277591235086</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.3390996464381</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3319,7 +3319,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>64.34190763938432</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>224.895256723152</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>47.69985694152459</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8385935972313</v>
+        <v>58.4224711922605</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>61.38537889855481</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>212.0917728165956</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1954.141365880777</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="C2" t="n">
-        <v>1954.141365880777</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="D2" t="n">
-        <v>1595.875667274027</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2637.972908494462</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2637.972908494462</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2637.972908494462</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2306.910021150891</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1954.141365880777</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>1954.141365880777</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y2" t="n">
-        <v>1954.141365880777</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="3">
@@ -4385,55 +4385,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>281.9325327183818</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>281.9325327183818</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>281.9325327183818</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1704.527073573122</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C5" t="n">
-        <v>1704.527073573122</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="D5" t="n">
-        <v>1346.261374966372</v>
+        <v>1188.678462110459</v>
       </c>
       <c r="E5" t="n">
-        <v>960.4731223681274</v>
+        <v>802.8902095122144</v>
       </c>
       <c r="F5" t="n">
-        <v>549.4872175785199</v>
+        <v>391.9043047226068</v>
       </c>
       <c r="G5" t="n">
-        <v>131.5234094767068</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>131.5234094767068</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1704.527073573122</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y5" t="n">
-        <v>1704.527073573122</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4667,22 +4667,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4770,7 +4770,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>680.5111271432434</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1272.344242153658</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="C8" t="n">
-        <v>1272.344242153658</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="D8" t="n">
-        <v>1272.344242153658</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="E8" t="n">
-        <v>886.5559895554136</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="F8" t="n">
-        <v>475.570084765806</v>
+        <v>220.92053615858</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,7 +4804,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.48357412947</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1272.344242153658</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="9">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>659.0063399253745</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>369.8327295799424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>369.8327295799424</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X10" t="n">
-        <v>369.8327295799424</v>
+        <v>210.7222632714565</v>
       </c>
       <c r="Y10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,40 +5053,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277032</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>901.6749225845919</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977053</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641086</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136706</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.92115703528</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.92115703528</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W13" t="n">
-        <v>1187.92115703528</v>
+        <v>1089.480514230906</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.92115703528</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="Y13" t="n">
-        <v>1187.92115703528</v>
+        <v>861.4909633328887</v>
       </c>
     </row>
     <row r="14">
@@ -5278,16 +5278,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="17">
@@ -5494,40 +5494,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5542,22 +5542,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.598437470156</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766199</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656581</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320614</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>936.0662010112162</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C19" t="n">
-        <v>936.0662010112162</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D19" t="n">
-        <v>822.1480540508779</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F19" t="n">
         <v>527.3450129705744</v>
@@ -5676,19 +5676,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1164.055751909234</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>1164.055751909234</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W19" t="n">
-        <v>1164.055751909234</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X19" t="n">
-        <v>936.0662010112162</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y19" t="n">
-        <v>936.0662010112162</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822463</v>
@@ -5752,7 +5752,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514081</v>
@@ -5773,7 +5773,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636247</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4368.210994661431</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>4334.202995919603</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>4184.086356507268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.85945949167</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>4549.85945949167</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>4549.85945949167</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>4549.85945949167</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>4549.85945949167</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>4549.85945949167</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>4549.85945949167</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,25 +5974,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>527.1935825831087</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>358.2573996552018</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>358.2573996552018</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>358.2573996552018</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>358.2573996552018</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>358.2573996552018</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687013</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V25" t="n">
-        <v>755.183133481126</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W25" t="n">
-        <v>755.183133481126</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X25" t="n">
-        <v>527.1935825831087</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y25" t="n">
-        <v>527.1935825831087</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6220,37 +6220,37 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6262,7 +6262,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1054.338276203878</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632138</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>822.148054050878</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684849</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1306.193495155475</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1306.193495155475</v>
       </c>
       <c r="U28" t="n">
-        <v>1275.130855347408</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="V28" t="n">
-        <v>1275.130855347408</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W28" t="n">
-        <v>1275.130855347408</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X28" t="n">
-        <v>1275.130855347408</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>1054.338276203878</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6454,40 +6454,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>573.5346686508863</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>573.5346686508863</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>573.5346686508863</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>573.5346686508863</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1009.867621687013</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V31" t="n">
-        <v>755.183133481126</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W31" t="n">
-        <v>755.183133481126</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X31" t="n">
-        <v>755.183133481126</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y31" t="n">
-        <v>755.183133481126</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1275.130855347408</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V34" t="n">
-        <v>1275.130855347408</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W34" t="n">
-        <v>1275.130855347408</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>1275.130855347408</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>1054.338276203878</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,25 +6922,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,7 +6955,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4503.13917884751</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>4334.202995919603</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>4184.086356507268</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>4036.173262924875</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3889.283315426964</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746785</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4684.78764367775</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>4684.78764367775</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>4684.78764367775</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V37" t="n">
-        <v>4684.78764367775</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W37" t="n">
-        <v>4684.78764367775</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X37" t="n">
-        <v>4684.78764367775</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
-        <v>4684.78764367775</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,16 +7165,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
@@ -7192,13 +7192,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1020.446367141521</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>1020.446367141521</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>1020.446367141521</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1020.446367141521</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>1020.446367141521</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7390,40 +7390,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7490,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4230.423978142506</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="C43" t="n">
-        <v>4061.487795214599</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="D43" t="n">
-        <v>3911.371155802263</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="E43" t="n">
-        <v>3763.45806221987</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="F43" t="n">
-        <v>3616.56811472196</v>
+        <v>156.2296886241853</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>4860.854573014292</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V43" t="n">
-        <v>4860.854573014292</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W43" t="n">
-        <v>4860.854573014292</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X43" t="n">
-        <v>4632.865022116275</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y43" t="n">
-        <v>4412.072442972745</v>
+        <v>303.1196361220957</v>
       </c>
     </row>
     <row r="44">
@@ -7627,31 +7627,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>879.2482765610114</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C46" t="n">
-        <v>710.3120936331045</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D46" t="n">
-        <v>560.1954542207687</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E46" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1236.990827242591</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>1236.990827242591</v>
       </c>
       <c r="V46" t="n">
-        <v>1275.130855347408</v>
+        <v>982.3063390367042</v>
       </c>
       <c r="W46" t="n">
-        <v>1275.130855347408</v>
+        <v>692.8891689997437</v>
       </c>
       <c r="X46" t="n">
-        <v>1275.130855347408</v>
+        <v>464.8996181017263</v>
       </c>
       <c r="Y46" t="n">
-        <v>1060.896741391251</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747122</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,25 +8774,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>52.49733361305351</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>15.83804904622852</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>96.03744927814773</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298298</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776759</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.7842838544522</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10193,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>392.1113620226438</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.5789023442195</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>277.3833043752346</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,22 +23706,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.278393308918</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.20792265079217e-12</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>35.83650752747747</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>84.5900101059309</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H20" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>133.5789023442185</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338579</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0.9031687188413571</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>85.99397418537009</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>117.0896147389934</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>99.69328889942264</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6.492880535499154</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25128,19 +25128,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>133.5789023442189</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>61.3420956754253</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>119.5469641571032</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>10.65497486614629</v>
+        <v>108.0710972711171</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>160.1621821598345</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>6.492880535499154</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>940305.1042799111</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>940305.1042799108</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>940305.104279911</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>940305.104279911</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>940305.104279911</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>940305.104279911</v>
+        <v>940305.1042799109</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="F2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="G2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="H2" t="n">
         <v>449683.4186983651</v>
       </c>
       <c r="I2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="J2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="K2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="L2" t="n">
         <v>449683.4186983653</v>
@@ -26349,10 +26349,10 @@
         <v>449683.4186983652</v>
       </c>
       <c r="N2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983654</v>
       </c>
       <c r="O2" t="n">
-        <v>449683.4186983654</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="P2" t="n">
         <v>449683.4186983652</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
@@ -26435,16 +26435,16 @@
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
         <v>22174.60758687071</v>
@@ -26453,7 +26453,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26493,10 +26493,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26505,13 +26505,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-366360.8073925155</v>
+        <v>-366360.8073925154</v>
       </c>
       <c r="C6" t="n">
-        <v>223607.0718220291</v>
+        <v>223607.0718220292</v>
       </c>
       <c r="D6" t="n">
-        <v>223607.0718220292</v>
+        <v>223607.071822029</v>
       </c>
       <c r="E6" t="n">
-        <v>-189638.5513141183</v>
+        <v>-190613.1425738399</v>
       </c>
       <c r="F6" t="n">
-        <v>335521.4851627777</v>
+        <v>334546.8939030562</v>
       </c>
       <c r="G6" t="n">
-        <v>335521.485162778</v>
+        <v>334546.8939030563</v>
       </c>
       <c r="H6" t="n">
-        <v>335521.4851627778</v>
+        <v>334546.8939030561</v>
       </c>
       <c r="I6" t="n">
-        <v>335521.4851627779</v>
+        <v>334546.8939030563</v>
       </c>
       <c r="J6" t="n">
-        <v>159098.2659701849</v>
+        <v>158123.6747104634</v>
       </c>
       <c r="K6" t="n">
-        <v>335521.4851627779</v>
+        <v>334546.8939030562</v>
       </c>
       <c r="L6" t="n">
-        <v>335521.4851627779</v>
+        <v>334546.8939030563</v>
       </c>
       <c r="M6" t="n">
-        <v>200720.4699289407</v>
+        <v>199745.8786692191</v>
       </c>
       <c r="N6" t="n">
-        <v>335521.4851627779</v>
+        <v>334546.8939030564</v>
       </c>
       <c r="O6" t="n">
-        <v>335521.4851627781</v>
+        <v>334546.8939030562</v>
       </c>
       <c r="P6" t="n">
-        <v>335521.4851627778</v>
+        <v>334546.8939030562</v>
       </c>
     </row>
   </sheetData>
@@ -26737,22 +26737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541001</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>107.4781987052507</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>115.8312921104487</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>136.7057146380968</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>171.2340993700032</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>231.1337765924363</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>75.12669286508236</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.4429748595358</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,16 +27861,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>320.296110869165</v>
+        <v>248.4763912259616</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28022,10 +28022,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>156.6036876198352</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>63.3731647155137</v>
       </c>
     </row>
     <row r="11">
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31931,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32235,40 +32235,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,10 +32308,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
@@ -32320,7 +32320,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
@@ -32329,10 +32329,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32408,7 +32408,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,10 +32420,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
         <v>0.08167695791351813</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490663</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.129440800466</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>334.8610358541616</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>222.9314639777532</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507407</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>378.4011515192558</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504661</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980127</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092005</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.689756130333</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
         <v>528.689756130333</v>
@@ -36852,7 +36852,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
         <v>59.82538970349808</v>
@@ -36913,10 +36913,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36925,13 +36925,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>674.475064263752</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
         <v>528.689756130333</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37873,10 +37873,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1461613.739688125</v>
+        <v>1466553.002537157</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>274.452171367011</v>
+        <v>106.7614206448858</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>30.54110646053108</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>9.275596830496628</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,16 +904,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>182.6503934283587</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>269.010098463741</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>165.3077787948334</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>241.7627700121621</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>60.25574836862804</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>9.139693961356361</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1824,16 +1824,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>157.1439802807833</v>
       </c>
     </row>
     <row r="17">
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>167.5476332178971</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151915</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>94.16481274941263</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>80.83119524460984</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3046,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>99.43636052933105</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>224.895256723152</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>204.1291651532053</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>28.30910107930799</v>
       </c>
       <c r="G43" t="n">
-        <v>58.4224711922605</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>139.1537278750036</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>61.38537889855481</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1640.777806202926</v>
+        <v>1317.927233509</v>
       </c>
       <c r="C2" t="n">
-        <v>1640.777806202926</v>
+        <v>1317.927233509</v>
       </c>
       <c r="D2" t="n">
-        <v>1640.777806202926</v>
+        <v>1317.927233509</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202926</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X2" t="n">
-        <v>1640.777806202926</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y2" t="n">
-        <v>1640.777806202926</v>
+        <v>1704.527073573122</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4412,28 +4412,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600561</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4512,28 +4512,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.944160717209</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C5" t="n">
-        <v>1546.944160717209</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D5" t="n">
-        <v>1188.678462110459</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E5" t="n">
-        <v>802.8902095122144</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>391.9043047226068</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="X5" t="n">
-        <v>2323.683332757143</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="Y5" t="n">
-        <v>1933.544000781331</v>
+        <v>1721.819089287443</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
         <v>667.8624625746712</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>631.9064409481875</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C8" t="n">
-        <v>631.9064409481875</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D8" t="n">
-        <v>631.9064409481875</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>631.9064409481875</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>220.92053615858</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4807,16 +4807,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4834,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="W8" t="n">
-        <v>1782.111371249201</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="X8" t="n">
-        <v>1408.645612988121</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y8" t="n">
-        <v>1018.506281012309</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4968,43 +4968,43 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694738</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
         <v>53.94298182036445</v>
@@ -5038,16 +5038,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5062,25 +5062,25 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5117,7 +5117,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256435</v>
@@ -5129,13 +5129,13 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>841.863114014129</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1646.27469227828</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2315.738453580939</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>861.4909633328887</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="C13" t="n">
-        <v>692.5547804049818</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="D13" t="n">
-        <v>542.438140992646</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="E13" t="n">
-        <v>394.5250474102529</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5226,25 +5226,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V13" t="n">
-        <v>1098.712528333286</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W13" t="n">
-        <v>1089.480514230906</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="X13" t="n">
-        <v>861.4909633328887</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="Y13" t="n">
-        <v>861.4909633328887</v>
+        <v>420.0340835819385</v>
       </c>
     </row>
     <row r="14">
@@ -5272,22 +5272,22 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5366,7 +5366,7 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
         <v>2051.878056918008</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.9110074201016</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C16" t="n">
-        <v>213.9110074201016</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D16" t="n">
-        <v>213.9110074201016</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E16" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609664</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550796</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201016</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.9110074201016</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="17">
@@ -5515,25 +5515,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5597,19 +5597,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5709,16 +5709,16 @@
         <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>816.762183007535</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W19" t="n">
-        <v>527.3450129705744</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X19" t="n">
-        <v>527.3450129705744</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,46 +5731,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5779,22 +5779,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341671</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653858</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918009</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136706</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5913,19 +5913,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5937,10 +5937,10 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
         <v>869.3083006011506</v>
@@ -5986,13 +5986,13 @@
         <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1271.749344574921</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6226,19 +6226,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6262,7 +6262,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>192.33306393444</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>192.33306393444</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>192.33306393444</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>192.33306393444</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>192.33306393444</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>192.33306393444</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>192.33306393444</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1306.193495155475</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1306.193495155475</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U28" t="n">
-        <v>1017.064856369034</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V28" t="n">
-        <v>1017.064856369034</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W28" t="n">
-        <v>727.647686332073</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="X28" t="n">
-        <v>499.6581354340557</v>
+        <v>192.33306393444</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>192.33306393444</v>
       </c>
     </row>
     <row r="29">
@@ -6442,40 +6442,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U31" t="n">
-        <v>1271.749344574921</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>1017.064856369034</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>727.647686332073</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>499.6581354340557</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,16 +6767,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>1271.749344574921</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V34" t="n">
-        <v>1017.064856369034</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W34" t="n">
-        <v>727.647686332073</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X34" t="n">
-        <v>499.6581354340557</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="Y34" t="n">
-        <v>278.8655562905255</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="35">
@@ -6934,43 +6934,43 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1271.749344574921</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>727.647686332073</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X37" t="n">
-        <v>499.6581354340557</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,16 +7162,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7192,13 +7192,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7399,10 +7399,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7411,13 +7411,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>303.1196361220957</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C43" t="n">
-        <v>303.1196361220957</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D43" t="n">
-        <v>303.1196361220957</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E43" t="n">
-        <v>303.1196361220957</v>
+        <v>293.9874647357258</v>
       </c>
       <c r="F43" t="n">
-        <v>156.2296886241853</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.21084526296</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>820.5263570570736</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>531.109187020113</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>303.1196361220957</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y43" t="n">
-        <v>303.1196361220957</v>
+        <v>441.900558318119</v>
       </c>
     </row>
     <row r="44">
@@ -7627,19 +7627,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822463</v>
@@ -7648,10 +7648,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>244.1070389581962</v>
+        <v>237.776412546148</v>
       </c>
       <c r="C46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1236.990827242591</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>1236.990827242591</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V46" t="n">
-        <v>982.3063390367042</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W46" t="n">
-        <v>692.8891689997437</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X46" t="n">
-        <v>464.8996181017263</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y46" t="n">
-        <v>244.1070389581962</v>
+        <v>237.776412546148</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8777,16 +8777,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>15.83804904622852</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9014,10 +9014,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229593</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>106.2378200947495</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>277.3833043752346</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>29.89407122271365</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>61.44067307131149</v>
       </c>
     </row>
     <row r="17">
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>84.5900101059309</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="20">
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338579</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>16.25443271485935</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>117.0896147389934</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25125,16 +25125,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>119.1482928227637</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>61.3420956754253</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>14.4554881988895</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>64.3050033817197</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>117.1119469436233</v>
       </c>
       <c r="G43" t="n">
-        <v>108.0710972711171</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.09309322362427</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>160.1621821598345</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.104279911</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>940305.1042799109</v>
+        <v>940305.1042799108</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="C2" t="n">
+        <v>472099.0176719629</v>
+      </c>
+      <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
-      <c r="C2" t="n">
-        <v>472099.017671963</v>
-      </c>
-      <c r="D2" t="n">
-        <v>472099.0176719629</v>
-      </c>
       <c r="E2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="F2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="G2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="H2" t="n">
         <v>449683.4186983653</v>
-      </c>
-      <c r="H2" t="n">
-        <v>449683.4186983651</v>
       </c>
       <c r="I2" t="n">
         <v>449683.4186983653</v>
@@ -26343,16 +26343,16 @@
         <v>449683.4186983652</v>
       </c>
       <c r="L2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="M2" t="n">
+        <v>449683.4186983654</v>
+      </c>
+      <c r="N2" t="n">
         <v>449683.4186983652</v>
       </c>
-      <c r="N2" t="n">
-        <v>449683.4186983654</v>
-      </c>
       <c r="O2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983651</v>
       </c>
       <c r="P2" t="n">
         <v>449683.4186983652</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26453,7 +26453,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
@@ -26487,31 +26487,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-366360.8073925154</v>
       </c>
       <c r="C6" t="n">
+        <v>223607.071822029</v>
+      </c>
+      <c r="D6" t="n">
         <v>223607.0718220292</v>
       </c>
-      <c r="D6" t="n">
-        <v>223607.071822029</v>
-      </c>
       <c r="E6" t="n">
-        <v>-190613.1425738399</v>
+        <v>-189736.0104400906</v>
       </c>
       <c r="F6" t="n">
-        <v>334546.8939030562</v>
+        <v>335424.0260368057</v>
       </c>
       <c r="G6" t="n">
-        <v>334546.8939030563</v>
+        <v>335424.0260368056</v>
       </c>
       <c r="H6" t="n">
-        <v>334546.8939030561</v>
+        <v>335424.0260368058</v>
       </c>
       <c r="I6" t="n">
-        <v>334546.8939030563</v>
+        <v>335424.0260368058</v>
       </c>
       <c r="J6" t="n">
-        <v>158123.6747104634</v>
+        <v>159000.8068442128</v>
       </c>
       <c r="K6" t="n">
-        <v>334546.8939030562</v>
+        <v>335424.0260368056</v>
       </c>
       <c r="L6" t="n">
-        <v>334546.8939030563</v>
+        <v>335424.0260368056</v>
       </c>
       <c r="M6" t="n">
-        <v>199745.8786692191</v>
+        <v>200623.0108029686</v>
       </c>
       <c r="N6" t="n">
-        <v>334546.8939030564</v>
+        <v>335424.0260368056</v>
       </c>
       <c r="O6" t="n">
-        <v>334546.8939030562</v>
+        <v>335424.0260368055</v>
       </c>
       <c r="P6" t="n">
-        <v>334546.8939030562</v>
+        <v>335424.0260368056</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26755,31 +26755,31 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>107.4781987052507</v>
+        <v>275.1689494273759</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>136.7057146380968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>277.0062774114811</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>231.1337765924363</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>58.74216000639387</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,19 +27861,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>248.4763912259616</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>85.98948845797281</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>63.3731647155137</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32642,10 +32642,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35497,16 +35497,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>222.9314639777532</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
         <v>88.01303278507413</v>
@@ -35734,10 +35734,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.689756130333</v>
@@ -35965,7 +35965,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734254</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507407</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,16 +37156,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,16 +37630,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
